--- a/medicine/Psychotrope/Borsodi/Borsodi.xlsx
+++ b/medicine/Psychotrope/Borsodi/Borsodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Borsodi ([ˈboɾʃodi]) est une marque de bière hongroise de type Helles produite par la société Borsodi Sörgyár Zrt.. Son nom renvoie au comitat Borsod-Abaúj-Zemplén.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Borsodi est apparue pour la première fois dans le nord de la Hongrie en 1973, sous le nom de Borsodi Világos. Ce nom a été remplacé en 1997. Le monde visuel de la marque a subi de nombreux changements, gagnant son image actuelle à partir du milieu des années 90.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bières légères disponibles en Hongrie ont un type d'alcool pils avec une teneur en alcool standard (4,5%).
 L'aspect du verre combine des couleurs sombres (bouteille marron, étiquette vert foncé).
@@ -575,7 +591,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La marque recouvre plusieurs produits :
 Borsodi Világos
@@ -608,7 +626,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(hu) Site officiel
  Portail de la bière   Portail de la Hongrie                    </t>
